--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_16-29.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_16-29.xlsx
@@ -80,10 +80,19 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
+    <t>DISPERCAM 20 MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:1</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -101,6 +110,9 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
@@ -209,6 +221,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
   </si>
   <si>
@@ -228,6 +243,12 @@
   </si>
   <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1102,11 +1123,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1122,17 +1143,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1140,7 +1161,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1148,13 +1169,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1180,7 +1201,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1200,13 +1221,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1226,7 +1247,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1236,7 +1257,7 @@
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1244,7 +1265,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1252,17 +1273,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1270,7 +1291,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1284,11 +1305,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1296,7 +1317,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1304,17 +1325,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1322,7 +1343,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1330,17 +1351,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1348,7 +1369,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1362,11 +1383,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1374,7 +1395,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1382,17 +1403,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1400,7 +1421,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1408,17 +1429,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1426,7 +1447,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1434,17 +1455,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1452,7 +1473,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1460,13 +1481,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1486,17 +1507,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1512,13 +1533,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1538,13 +1559,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1556,7 +1577,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1564,17 +1585,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1582,7 +1603,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1590,17 +1611,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1608,7 +1629,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1616,17 +1637,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1642,13 +1663,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1668,13 +1689,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1694,17 +1715,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1712,7 +1733,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1720,17 +1741,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1746,13 +1767,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1772,17 +1793,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20.399999999999999</v>
+        <v>38</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1790,7 +1811,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1798,13 +1819,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1824,13 +1845,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1842,7 +1863,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1850,17 +1871,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>149.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1876,13 +1897,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1902,13 +1923,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1920,7 +1941,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1928,17 +1949,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>18</v>
+        <v>149.5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1946,7 +1967,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1954,17 +1975,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1972,7 +1993,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1980,13 +2001,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1998,7 +2019,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2006,17 +2027,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2024,7 +2045,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2032,17 +2053,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>66.640000000000001</v>
+        <v>122</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2050,7 +2071,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2058,13 +2079,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2084,13 +2105,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>-375</v>
+        <v>68</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2110,17 +2131,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2136,17 +2157,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>40</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2168,7 +2189,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2188,13 +2209,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>188.09999999999999</v>
+        <v>-375</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2214,17 +2235,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2240,13 +2261,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2258,7 +2279,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2266,17 +2287,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>25</v>
+        <v>11.880000000000001</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2292,13 +2313,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2310,7 +2331,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2318,13 +2339,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>188.09999999999999</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2344,13 +2365,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2370,13 +2391,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2388,7 +2409,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2396,51 +2417,181 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="K64" s="10">
-        <v>2715.6799999999998</v>
-      </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="11">
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
         <v>87</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c t="s" r="F65" s="12">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>13</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>50</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
         <v>88</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-      <c t="s" r="I65" s="14">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
         <v>89</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
+        <v>90</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
+        <v>45</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>35</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>91</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>57</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>25</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
+        <v>92</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>93</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>45</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="K69" s="10">
+        <v>2918.5599999999999</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="11">
+        <v>94</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c t="s" r="F70" s="12">
+        <v>95</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c t="s" r="I70" s="14">
+        <v>96</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="206">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2628,10 +2779,25 @@
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="I65:N65"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:N70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
